--- a/코인매매예상시나리오.xlsx
+++ b/코인매매예상시나리오.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\every\OneDrive\바탕 화면\Project\AutoTrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2A9D03-7A3E-434F-8D35-4A8E97F5B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6407D66E-4C51-41D1-8882-C1608DB7811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7F781189-BA99-46CD-873E-773A22896C78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7F781189-BA99-46CD-873E-773A22896C78}"/>
   </bookViews>
   <sheets>
     <sheet name="계산수식" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>40000</v>
+        <v>500000</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>6000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C6" s="5">
         <f>C3*C5</f>
-        <v>400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="5">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1074,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C12" s="23">
         <f>$C$4*B12</f>
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="D12" s="24">
         <f>F3</f>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="E12" s="24">
         <f>$C$4/D12</f>
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="24">
         <f>C12/E12</f>
@@ -1126,15 +1126,15 @@
       </c>
       <c r="G12" s="24">
         <f>D12-C6/E12</f>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
       <c r="H12" s="24">
         <f>(E12*G12) - C12</f>
-        <v>-400</v>
+        <v>-5000</v>
       </c>
       <c r="I12" s="3">
         <f>H12/C12*100</f>
-        <v>-6.666666666666667</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -1143,31 +1143,31 @@
       </c>
       <c r="C13" s="21">
         <f t="shared" ref="C13:C21" si="0">$C$4*B13</f>
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="D13" s="19">
         <f>D12*(1+$C$7)</f>
-        <v>114.99999999999999</v>
+        <v>111.00000000000001</v>
       </c>
       <c r="E13" s="19">
         <f>E12+($C$4/D13)</f>
-        <v>112.17391304347827</v>
+        <v>1900.9009009009008</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" ref="F13:F16" si="1">C13/E13</f>
-        <v>106.9767441860465</v>
+        <v>105.21327014218011</v>
       </c>
       <c r="G13" s="19">
         <f>D13*(1-$C$8)</f>
-        <v>108.09999999999998</v>
+        <v>102.12000000000002</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" ref="H13:H16" si="2">(E13*G13) - C13</f>
-        <v>125.99999999999818</v>
+        <v>-5879.9999999999709</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13:I21" si="3">H13/C13*100</f>
-        <v>1.0499999999999847</v>
+        <v>-2.9399999999999853</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -1176,31 +1176,31 @@
       </c>
       <c r="C14" s="21">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>300000</v>
       </c>
       <c r="D14" s="19">
         <f t="shared" ref="D14:D16" si="4">D13*(1+$C$7)</f>
-        <v>132.24999999999997</v>
+        <v>123.21000000000002</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ref="E14:E16" si="5">E13+($C$4/D14)</f>
-        <v>157.54253308128546</v>
+        <v>2712.5233341449557</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="1"/>
-        <v>114.2548596112311</v>
+        <v>110.59812692618414</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" ref="G14:G21" si="6">D14*(1-$C$8)</f>
-        <v>124.31499999999997</v>
+        <v>113.35320000000003</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="2"/>
-        <v>1584.8999999999978</v>
+        <v>7473.2000000000698</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>8.8049999999999873</v>
+        <v>2.4910666666666899</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1209,31 +1209,31 @@
       </c>
       <c r="C15" s="21">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>400000</v>
       </c>
       <c r="D15" s="19">
         <f t="shared" si="4"/>
-        <v>152.08749999999995</v>
+        <v>136.76310000000004</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="5"/>
-        <v>196.99350702720477</v>
+        <v>3443.7147154459058</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" si="1"/>
-        <v>121.83142664029837</v>
+        <v>116.15364019728517</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="6"/>
-        <v>142.96224999999995</v>
+        <v>125.82205200000004</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" si="2"/>
-        <v>4162.6349999999948</v>
+        <v>33295.252000000095</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="3"/>
-        <v>17.34431249999998</v>
+        <v>8.3238130000000243</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -1242,31 +1242,31 @@
       </c>
       <c r="C16" s="21">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>500000</v>
       </c>
       <c r="D16" s="19">
         <f t="shared" si="4"/>
-        <v>174.90062499999993</v>
+        <v>151.80704100000005</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="5"/>
-        <v>231.29870176278678</v>
+        <v>4102.4456895909061</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="1"/>
-        <v>129.70241411370793</v>
+        <v>121.87851779942997</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="6"/>
-        <v>164.40658749999992</v>
+        <v>139.66247772000006</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="2"/>
-        <v>8027.0302499999889</v>
+        <v>72957.729720000178</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>26.756767499999963</v>
+        <v>14.591545944000037</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -1275,31 +1275,31 @@
       </c>
       <c r="C17" s="21">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>600000</v>
       </c>
       <c r="D17" s="19">
         <f t="shared" ref="D17:D21" si="7">D16*(1+$C$7)</f>
-        <v>201.13571874999991</v>
+        <v>168.50581551000008</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ref="E17:E21" si="8">E16+($C$4/D17)</f>
-        <v>261.12930588068417</v>
+        <v>4695.8970176494649</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" ref="F17:F21" si="9">C17/E17</f>
-        <v>137.86273386124347</v>
+        <v>127.7711154535349</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="6"/>
-        <v>189.0675756249999</v>
+        <v>155.02535026920009</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" ref="H17:H21" si="10">(E17*G17) - C17</f>
-        <v>13371.084787499989</v>
+        <v>127983.07998920034</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="3"/>
-        <v>37.141902187499973</v>
+        <v>21.330513331533389</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -1308,31 +1308,31 @@
       </c>
       <c r="C18" s="21">
         <f t="shared" si="0"/>
-        <v>42000</v>
+        <v>700000</v>
       </c>
       <c r="D18" s="19">
         <f t="shared" si="7"/>
-        <v>231.30607656249987</v>
+        <v>187.0414552161001</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="8"/>
-        <v>287.06896163537755</v>
+        <v>5230.5378537382567</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="9"/>
-        <v>146.30630828471999</v>
+        <v>133.82944920276432</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="6"/>
-        <v>217.42771196874986</v>
+        <v>172.07813879881209</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="10"/>
-        <v>20416.747505624975</v>
+        <v>200061.2187880124</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>48.611303584821371</v>
+        <v>28.580174112573197</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -1341,31 +1341,31 @@
       </c>
       <c r="C19" s="21">
         <f t="shared" si="0"/>
-        <v>48000</v>
+        <v>800000</v>
       </c>
       <c r="D19" s="19">
         <f t="shared" si="7"/>
-        <v>266.00198804687483</v>
+        <v>207.61601528987114</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="8"/>
-        <v>309.62518403076308</v>
+        <v>5712.1962646290594</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="9"/>
-        <v>155.02614927870633</v>
+        <v>140.05121024180193</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="6"/>
-        <v>250.04186876406231</v>
+        <v>191.00673406668145</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="10"/>
-        <v>29419.259631468711</v>
+        <v>291067.95285469387</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>61.290124232226482</v>
+        <v>36.383494106836736</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -1374,31 +1374,31 @@
       </c>
       <c r="C20" s="21">
         <f t="shared" si="0"/>
-        <v>54000</v>
+        <v>900000</v>
       </c>
       <c r="D20" s="19">
         <f t="shared" si="7"/>
-        <v>305.90228625390603</v>
+        <v>230.45377697175698</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="8"/>
-        <v>329.23929046153313</v>
+        <v>6146.12276092708</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="9"/>
-        <v>164.01444652702872</v>
+        <v>146.43378191558349</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="6"/>
-        <v>287.54814907867166</v>
+        <v>212.01747481401642</v>
       </c>
       <c r="H20" s="19">
         <f t="shared" si="10"/>
-        <v>40672.148576189007</v>
+        <v>403085.42766871024</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>75.31879365960927</v>
+        <v>44.787269740967808</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1407,31 +1407,31 @@
       </c>
       <c r="C21" s="22">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>1000000</v>
       </c>
       <c r="D21" s="20">
         <f t="shared" si="7"/>
-        <v>351.78762919199193</v>
+        <v>255.80369243865027</v>
       </c>
       <c r="E21" s="20">
         <f t="shared" si="8"/>
-        <v>346.29503518394188</v>
+        <v>6537.0475323667379</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" si="9"/>
-        <v>173.26266305876936</v>
+        <v>152.97425864638774</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="6"/>
-        <v>330.68037144047241</v>
+        <v>235.33939704355825</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" si="10"/>
-        <v>54512.970862617367</v>
+        <v>538424.82471226831</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="3"/>
-        <v>90.854951437695604</v>
+        <v>53.84248247122683</v>
       </c>
     </row>
   </sheetData>
